--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
@@ -31,18 +31,6 @@
     <t xml:space="preserve">Done</t>
   </si>
   <si>
-    <t xml:space="preserve">Pattern Printing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circular Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hashing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search</t>
-  </si>
-  <si>
     <t xml:space="preserve">Euclidian Algorithm</t>
   </si>
   <si>
@@ -82,15 +70,9 @@
     <t xml:space="preserve">Inclusion Exclusion Principle</t>
   </si>
   <si>
-    <t xml:space="preserve">Two Pointer Technique</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sorting on Linked List</t>
   </si>
   <si>
-    <t xml:space="preserve">Bit Manipulation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Power Set</t>
   </si>
   <si>
@@ -100,9 +82,6 @@
     <t xml:space="preserve">Kanade's</t>
   </si>
   <si>
-    <t xml:space="preserve">Recursion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Backtracking</t>
   </si>
   <si>
@@ -139,24 +118,12 @@
     <t xml:space="preserve">DFS/BFS</t>
   </si>
   <si>
-    <t xml:space="preserve">Diameter of Tree</t>
-  </si>
-  <si>
     <t xml:space="preserve">Euler Tour of Tree</t>
   </si>
   <si>
     <t xml:space="preserve">LCA using Euler Tour</t>
   </si>
   <si>
-    <t xml:space="preserve">LCA using Binary Lifting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance between two  nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtree problems</t>
-  </si>
-  <si>
     <t xml:space="preserve">Connected Component</t>
   </si>
   <si>
@@ -166,60 +133,27 @@
     <t xml:space="preserve">Cycle Detection</t>
   </si>
   <si>
-    <t xml:space="preserve">Bipartite Check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCC using Kosaraju's</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dijikstra's</t>
   </si>
   <si>
     <t xml:space="preserve">Bellman Ford</t>
   </si>
   <si>
+    <t xml:space="preserve">Bipartite matching</t>
+  </si>
+  <si>
     <t xml:space="preserve">Floyd Warshall</t>
   </si>
   <si>
-    <t xml:space="preserve">Bridges in Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Articulation point in Graph</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kruksal's</t>
   </si>
   <si>
-    <t xml:space="preserve">Tarjen’s</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prime's </t>
   </si>
   <si>
     <t xml:space="preserve">0/1 BFS</t>
   </si>
   <si>
-    <t xml:space="preserve">Finding Bridges online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal DP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digit DP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DP on trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DP with Bitmask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS DP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offline Queries using Disjoint set</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sparse Table</t>
   </si>
   <si>
@@ -233,9 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sqrt Decomposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segment Trees with Lazy Propogattion</t>
   </si>
   <si>
     <t xml:space="preserve">Mo's Algorithm on Trees</t>
@@ -374,13 +305,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ78"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
+      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.55"/>
@@ -408,7 +339,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,10 +347,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,10 +358,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,10 +369,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +512,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -592,7 +523,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -614,7 +545,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -647,7 +578,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -713,7 +644,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -790,7 +721,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -845,7 +776,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -856,7 +787,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -867,7 +798,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -878,7 +809,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -889,7 +820,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -900,7 +831,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -911,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -922,7 +853,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -933,7 +864,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -944,7 +875,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -955,7 +886,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -966,278 +897,48 @@
         <v>54</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="B55" s="0" t="n">
-        <v>3</v>
+        <f aca="false">SUM(B2:B53)</f>
+        <v>206</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <f aca="false">SUM(B2:B76)</f>
-        <v>337</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <f aca="false">SUM(C2:C76)</f>
-        <v>88</v>
-      </c>
-    </row>
+        <f aca="false">SUM(C2:C53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
